--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AC/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AC/10/seed4/result_data_RandomForest.xlsx
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.30850000000001</v>
+        <v>-12.99219999999999</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.9459</v>
+        <v>-21.89350000000002</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.2185</v>
+        <v>-11.4351</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.28100000000001</v>
+        <v>-22.17060000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.77489999999998</v>
+        <v>-20.85489999999998</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.7951</v>
+        <v>-12.8153</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -887,13 +887,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.77299999999999</v>
+        <v>-21.952</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.7667</v>
+        <v>-13.1235</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.26700000000001</v>
+        <v>-11.1741</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.89039999999999</v>
+        <v>-14.49269999999998</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1080,7 +1080,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.96310000000001</v>
+        <v>-12.9934</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.9882</v>
+        <v>-12.11989999999999</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.71179999999999</v>
+        <v>-13.8018</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1601,13 +1601,13 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.9133</v>
+        <v>-21.9338</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.7919</v>
+        <v>-12.0327</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1624,7 +1624,7 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-11.4777</v>
+        <v>-11.4315</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.89239999999999</v>
+        <v>-19.87489999999999</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.0194</v>
+        <v>-21.9766</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1845,7 +1845,7 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.9994</v>
+        <v>-13.77359999999999</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.50980000000001</v>
+        <v>-13.4016</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
